--- a/trunk/Document/Unit Testing Check List.xlsx
+++ b/trunk/Document/Unit Testing Check List.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
   <si>
     <t>Module Code</t>
   </si>
@@ -112,54 +110,21 @@
     <t>Account Manager</t>
   </si>
   <si>
-    <t>Edit, delete, sreach</t>
-  </si>
-  <si>
-    <t>table of data</t>
-  </si>
-  <si>
     <t>GUI_3.02</t>
   </si>
   <si>
-    <t>Insurance Manager</t>
-  </si>
-  <si>
-    <t>Life Insurance, Medical Insurance, Home Insurance, Motor Insurance</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
     <t>GUI_3.03</t>
   </si>
   <si>
     <t>Payment Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Cart, Pay, Calculator, Motor </t>
-  </si>
-  <si>
     <t>GUI_3.04</t>
   </si>
   <si>
     <t xml:space="preserve">Information Manager </t>
   </si>
   <si>
-    <t>Category, Ads, Information, Contact</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>validate message</t>
-  </si>
-  <si>
-    <t>go to home page</t>
-  </si>
-  <si>
-    <t>result message</t>
-  </si>
-  <si>
     <t>Check login</t>
   </si>
   <si>
@@ -187,45 +152,18 @@
     <t>Register successful</t>
   </si>
   <si>
-    <t>Login and go to homepage</t>
-  </si>
-  <si>
     <t>GUI_2.03</t>
   </si>
   <si>
-    <t>Create, Edit, [Delete]</t>
-  </si>
-  <si>
-    <t>Create, Edit, Delete</t>
-  </si>
-  <si>
     <t>Register</t>
   </si>
   <si>
-    <t>Test Buy function</t>
-  </si>
-  <si>
     <t>Buy Insurance</t>
   </si>
   <si>
-    <t>Buy Life Insurance</t>
-  </si>
-  <si>
     <t>check login, buy -&gt; add to cart</t>
   </si>
   <si>
-    <t>Buy Medical Insurance</t>
-  </si>
-  <si>
-    <t>Buy Home Insurance</t>
-  </si>
-  <si>
-    <t>cart has this product</t>
-  </si>
-  <si>
-    <t>Buy Motor Insurance</t>
-  </si>
-  <si>
     <t>Test Profile function</t>
   </si>
   <si>
@@ -247,15 +185,9 @@
     <t xml:space="preserve">input </t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>input, validate</t>
   </si>
   <si>
-    <t>Test Orther function</t>
-  </si>
-  <si>
     <t>GUI_5.01</t>
   </si>
   <si>
@@ -265,15 +197,6 @@
     <t>Orther</t>
   </si>
   <si>
-    <t>View Cart</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Send Contact</t>
-  </si>
-  <si>
     <t>GUI_6.01</t>
   </si>
   <si>
@@ -284,6 +207,45 @@
   </si>
   <si>
     <t>GUI_6.04</t>
+  </si>
+  <si>
+    <t>Test Booking function</t>
+  </si>
+  <si>
+    <t>Booking Movie Ticket</t>
+  </si>
+  <si>
+    <t>Booking Music Ticket</t>
+  </si>
+  <si>
+    <t>Booking Sport Ticket</t>
+  </si>
+  <si>
+    <t>Booking Drama Ticket</t>
+  </si>
+  <si>
+    <t>View Event</t>
+  </si>
+  <si>
+    <t>Test Event function</t>
+  </si>
+  <si>
+    <t>Create Event</t>
+  </si>
+  <si>
+    <t>GUI_5.03</t>
+  </si>
+  <si>
+    <t>Edit Event</t>
+  </si>
+  <si>
+    <t>Event Manager</t>
+  </si>
+  <si>
+    <t>GUI_5.04</t>
+  </si>
+  <si>
+    <t>Search Event</t>
   </si>
 </sst>
 </file>
@@ -294,7 +256,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -830,6 +792,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -838,51 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -896,6 +858,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -944,7 +909,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -979,7 +944,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1188,434 +1153,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="257" max="257" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="33.140625" customWidth="1"/>
-    <col min="259" max="259" width="39.7109375" customWidth="1"/>
-    <col min="260" max="260" width="26.140625" customWidth="1"/>
-    <col min="261" max="261" width="21.5703125" customWidth="1"/>
-    <col min="262" max="262" width="25.140625" customWidth="1"/>
-    <col min="513" max="513" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="33.140625" customWidth="1"/>
-    <col min="515" max="515" width="39.7109375" customWidth="1"/>
-    <col min="516" max="516" width="26.140625" customWidth="1"/>
-    <col min="517" max="517" width="21.5703125" customWidth="1"/>
-    <col min="518" max="518" width="25.140625" customWidth="1"/>
-    <col min="769" max="769" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="33.140625" customWidth="1"/>
-    <col min="771" max="771" width="39.7109375" customWidth="1"/>
-    <col min="772" max="772" width="26.140625" customWidth="1"/>
-    <col min="773" max="773" width="21.5703125" customWidth="1"/>
-    <col min="774" max="774" width="25.140625" customWidth="1"/>
-    <col min="1025" max="1025" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="33.140625" customWidth="1"/>
-    <col min="1027" max="1027" width="39.7109375" customWidth="1"/>
-    <col min="1028" max="1028" width="26.140625" customWidth="1"/>
-    <col min="1029" max="1029" width="21.5703125" customWidth="1"/>
-    <col min="1030" max="1030" width="25.140625" customWidth="1"/>
-    <col min="1281" max="1281" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="33.140625" customWidth="1"/>
-    <col min="1283" max="1283" width="39.7109375" customWidth="1"/>
-    <col min="1284" max="1284" width="26.140625" customWidth="1"/>
-    <col min="1285" max="1285" width="21.5703125" customWidth="1"/>
-    <col min="1286" max="1286" width="25.140625" customWidth="1"/>
-    <col min="1537" max="1537" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="33.140625" customWidth="1"/>
-    <col min="1539" max="1539" width="39.7109375" customWidth="1"/>
-    <col min="1540" max="1540" width="26.140625" customWidth="1"/>
-    <col min="1541" max="1541" width="21.5703125" customWidth="1"/>
-    <col min="1542" max="1542" width="25.140625" customWidth="1"/>
-    <col min="1793" max="1793" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="33.140625" customWidth="1"/>
-    <col min="1795" max="1795" width="39.7109375" customWidth="1"/>
-    <col min="1796" max="1796" width="26.140625" customWidth="1"/>
-    <col min="1797" max="1797" width="21.5703125" customWidth="1"/>
-    <col min="1798" max="1798" width="25.140625" customWidth="1"/>
-    <col min="2049" max="2049" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="33.140625" customWidth="1"/>
-    <col min="2051" max="2051" width="39.7109375" customWidth="1"/>
-    <col min="2052" max="2052" width="26.140625" customWidth="1"/>
-    <col min="2053" max="2053" width="21.5703125" customWidth="1"/>
-    <col min="2054" max="2054" width="25.140625" customWidth="1"/>
-    <col min="2305" max="2305" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="33.140625" customWidth="1"/>
-    <col min="2307" max="2307" width="39.7109375" customWidth="1"/>
-    <col min="2308" max="2308" width="26.140625" customWidth="1"/>
-    <col min="2309" max="2309" width="21.5703125" customWidth="1"/>
-    <col min="2310" max="2310" width="25.140625" customWidth="1"/>
-    <col min="2561" max="2561" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="33.140625" customWidth="1"/>
-    <col min="2563" max="2563" width="39.7109375" customWidth="1"/>
-    <col min="2564" max="2564" width="26.140625" customWidth="1"/>
-    <col min="2565" max="2565" width="21.5703125" customWidth="1"/>
-    <col min="2566" max="2566" width="25.140625" customWidth="1"/>
-    <col min="2817" max="2817" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="33.140625" customWidth="1"/>
-    <col min="2819" max="2819" width="39.7109375" customWidth="1"/>
-    <col min="2820" max="2820" width="26.140625" customWidth="1"/>
-    <col min="2821" max="2821" width="21.5703125" customWidth="1"/>
-    <col min="2822" max="2822" width="25.140625" customWidth="1"/>
-    <col min="3073" max="3073" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="33.140625" customWidth="1"/>
-    <col min="3075" max="3075" width="39.7109375" customWidth="1"/>
-    <col min="3076" max="3076" width="26.140625" customWidth="1"/>
-    <col min="3077" max="3077" width="21.5703125" customWidth="1"/>
-    <col min="3078" max="3078" width="25.140625" customWidth="1"/>
-    <col min="3329" max="3329" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="33.140625" customWidth="1"/>
-    <col min="3331" max="3331" width="39.7109375" customWidth="1"/>
-    <col min="3332" max="3332" width="26.140625" customWidth="1"/>
-    <col min="3333" max="3333" width="21.5703125" customWidth="1"/>
-    <col min="3334" max="3334" width="25.140625" customWidth="1"/>
-    <col min="3585" max="3585" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="33.140625" customWidth="1"/>
-    <col min="3587" max="3587" width="39.7109375" customWidth="1"/>
-    <col min="3588" max="3588" width="26.140625" customWidth="1"/>
-    <col min="3589" max="3589" width="21.5703125" customWidth="1"/>
-    <col min="3590" max="3590" width="25.140625" customWidth="1"/>
-    <col min="3841" max="3841" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="33.140625" customWidth="1"/>
-    <col min="3843" max="3843" width="39.7109375" customWidth="1"/>
-    <col min="3844" max="3844" width="26.140625" customWidth="1"/>
-    <col min="3845" max="3845" width="21.5703125" customWidth="1"/>
-    <col min="3846" max="3846" width="25.140625" customWidth="1"/>
-    <col min="4097" max="4097" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="33.140625" customWidth="1"/>
-    <col min="4099" max="4099" width="39.7109375" customWidth="1"/>
-    <col min="4100" max="4100" width="26.140625" customWidth="1"/>
-    <col min="4101" max="4101" width="21.5703125" customWidth="1"/>
-    <col min="4102" max="4102" width="25.140625" customWidth="1"/>
-    <col min="4353" max="4353" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="33.140625" customWidth="1"/>
-    <col min="4355" max="4355" width="39.7109375" customWidth="1"/>
-    <col min="4356" max="4356" width="26.140625" customWidth="1"/>
-    <col min="4357" max="4357" width="21.5703125" customWidth="1"/>
-    <col min="4358" max="4358" width="25.140625" customWidth="1"/>
-    <col min="4609" max="4609" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="33.140625" customWidth="1"/>
-    <col min="4611" max="4611" width="39.7109375" customWidth="1"/>
-    <col min="4612" max="4612" width="26.140625" customWidth="1"/>
-    <col min="4613" max="4613" width="21.5703125" customWidth="1"/>
-    <col min="4614" max="4614" width="25.140625" customWidth="1"/>
-    <col min="4865" max="4865" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="33.140625" customWidth="1"/>
-    <col min="4867" max="4867" width="39.7109375" customWidth="1"/>
-    <col min="4868" max="4868" width="26.140625" customWidth="1"/>
-    <col min="4869" max="4869" width="21.5703125" customWidth="1"/>
-    <col min="4870" max="4870" width="25.140625" customWidth="1"/>
-    <col min="5121" max="5121" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="33.140625" customWidth="1"/>
-    <col min="5123" max="5123" width="39.7109375" customWidth="1"/>
-    <col min="5124" max="5124" width="26.140625" customWidth="1"/>
-    <col min="5125" max="5125" width="21.5703125" customWidth="1"/>
-    <col min="5126" max="5126" width="25.140625" customWidth="1"/>
-    <col min="5377" max="5377" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="33.140625" customWidth="1"/>
-    <col min="5379" max="5379" width="39.7109375" customWidth="1"/>
-    <col min="5380" max="5380" width="26.140625" customWidth="1"/>
-    <col min="5381" max="5381" width="21.5703125" customWidth="1"/>
-    <col min="5382" max="5382" width="25.140625" customWidth="1"/>
-    <col min="5633" max="5633" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="33.140625" customWidth="1"/>
-    <col min="5635" max="5635" width="39.7109375" customWidth="1"/>
-    <col min="5636" max="5636" width="26.140625" customWidth="1"/>
-    <col min="5637" max="5637" width="21.5703125" customWidth="1"/>
-    <col min="5638" max="5638" width="25.140625" customWidth="1"/>
-    <col min="5889" max="5889" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="33.140625" customWidth="1"/>
-    <col min="5891" max="5891" width="39.7109375" customWidth="1"/>
-    <col min="5892" max="5892" width="26.140625" customWidth="1"/>
-    <col min="5893" max="5893" width="21.5703125" customWidth="1"/>
-    <col min="5894" max="5894" width="25.140625" customWidth="1"/>
-    <col min="6145" max="6145" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="33.140625" customWidth="1"/>
-    <col min="6147" max="6147" width="39.7109375" customWidth="1"/>
-    <col min="6148" max="6148" width="26.140625" customWidth="1"/>
-    <col min="6149" max="6149" width="21.5703125" customWidth="1"/>
-    <col min="6150" max="6150" width="25.140625" customWidth="1"/>
-    <col min="6401" max="6401" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="33.140625" customWidth="1"/>
-    <col min="6403" max="6403" width="39.7109375" customWidth="1"/>
-    <col min="6404" max="6404" width="26.140625" customWidth="1"/>
-    <col min="6405" max="6405" width="21.5703125" customWidth="1"/>
-    <col min="6406" max="6406" width="25.140625" customWidth="1"/>
-    <col min="6657" max="6657" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="33.140625" customWidth="1"/>
-    <col min="6659" max="6659" width="39.7109375" customWidth="1"/>
-    <col min="6660" max="6660" width="26.140625" customWidth="1"/>
-    <col min="6661" max="6661" width="21.5703125" customWidth="1"/>
-    <col min="6662" max="6662" width="25.140625" customWidth="1"/>
-    <col min="6913" max="6913" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="33.140625" customWidth="1"/>
-    <col min="6915" max="6915" width="39.7109375" customWidth="1"/>
-    <col min="6916" max="6916" width="26.140625" customWidth="1"/>
-    <col min="6917" max="6917" width="21.5703125" customWidth="1"/>
-    <col min="6918" max="6918" width="25.140625" customWidth="1"/>
-    <col min="7169" max="7169" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="33.140625" customWidth="1"/>
-    <col min="7171" max="7171" width="39.7109375" customWidth="1"/>
-    <col min="7172" max="7172" width="26.140625" customWidth="1"/>
-    <col min="7173" max="7173" width="21.5703125" customWidth="1"/>
-    <col min="7174" max="7174" width="25.140625" customWidth="1"/>
-    <col min="7425" max="7425" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="33.140625" customWidth="1"/>
-    <col min="7427" max="7427" width="39.7109375" customWidth="1"/>
-    <col min="7428" max="7428" width="26.140625" customWidth="1"/>
-    <col min="7429" max="7429" width="21.5703125" customWidth="1"/>
-    <col min="7430" max="7430" width="25.140625" customWidth="1"/>
-    <col min="7681" max="7681" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="33.140625" customWidth="1"/>
-    <col min="7683" max="7683" width="39.7109375" customWidth="1"/>
-    <col min="7684" max="7684" width="26.140625" customWidth="1"/>
-    <col min="7685" max="7685" width="21.5703125" customWidth="1"/>
-    <col min="7686" max="7686" width="25.140625" customWidth="1"/>
-    <col min="7937" max="7937" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="33.140625" customWidth="1"/>
-    <col min="7939" max="7939" width="39.7109375" customWidth="1"/>
-    <col min="7940" max="7940" width="26.140625" customWidth="1"/>
-    <col min="7941" max="7941" width="21.5703125" customWidth="1"/>
-    <col min="7942" max="7942" width="25.140625" customWidth="1"/>
-    <col min="8193" max="8193" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="33.140625" customWidth="1"/>
-    <col min="8195" max="8195" width="39.7109375" customWidth="1"/>
-    <col min="8196" max="8196" width="26.140625" customWidth="1"/>
-    <col min="8197" max="8197" width="21.5703125" customWidth="1"/>
-    <col min="8198" max="8198" width="25.140625" customWidth="1"/>
-    <col min="8449" max="8449" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="33.140625" customWidth="1"/>
-    <col min="8451" max="8451" width="39.7109375" customWidth="1"/>
-    <col min="8452" max="8452" width="26.140625" customWidth="1"/>
-    <col min="8453" max="8453" width="21.5703125" customWidth="1"/>
-    <col min="8454" max="8454" width="25.140625" customWidth="1"/>
-    <col min="8705" max="8705" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="33.140625" customWidth="1"/>
-    <col min="8707" max="8707" width="39.7109375" customWidth="1"/>
-    <col min="8708" max="8708" width="26.140625" customWidth="1"/>
-    <col min="8709" max="8709" width="21.5703125" customWidth="1"/>
-    <col min="8710" max="8710" width="25.140625" customWidth="1"/>
-    <col min="8961" max="8961" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="33.140625" customWidth="1"/>
-    <col min="8963" max="8963" width="39.7109375" customWidth="1"/>
-    <col min="8964" max="8964" width="26.140625" customWidth="1"/>
-    <col min="8965" max="8965" width="21.5703125" customWidth="1"/>
-    <col min="8966" max="8966" width="25.140625" customWidth="1"/>
-    <col min="9217" max="9217" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="33.140625" customWidth="1"/>
-    <col min="9219" max="9219" width="39.7109375" customWidth="1"/>
-    <col min="9220" max="9220" width="26.140625" customWidth="1"/>
-    <col min="9221" max="9221" width="21.5703125" customWidth="1"/>
-    <col min="9222" max="9222" width="25.140625" customWidth="1"/>
-    <col min="9473" max="9473" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="33.140625" customWidth="1"/>
-    <col min="9475" max="9475" width="39.7109375" customWidth="1"/>
-    <col min="9476" max="9476" width="26.140625" customWidth="1"/>
-    <col min="9477" max="9477" width="21.5703125" customWidth="1"/>
-    <col min="9478" max="9478" width="25.140625" customWidth="1"/>
-    <col min="9729" max="9729" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="33.140625" customWidth="1"/>
-    <col min="9731" max="9731" width="39.7109375" customWidth="1"/>
-    <col min="9732" max="9732" width="26.140625" customWidth="1"/>
-    <col min="9733" max="9733" width="21.5703125" customWidth="1"/>
-    <col min="9734" max="9734" width="25.140625" customWidth="1"/>
-    <col min="9985" max="9985" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="33.140625" customWidth="1"/>
-    <col min="9987" max="9987" width="39.7109375" customWidth="1"/>
-    <col min="9988" max="9988" width="26.140625" customWidth="1"/>
-    <col min="9989" max="9989" width="21.5703125" customWidth="1"/>
-    <col min="9990" max="9990" width="25.140625" customWidth="1"/>
-    <col min="10241" max="10241" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="33.140625" customWidth="1"/>
-    <col min="10243" max="10243" width="39.7109375" customWidth="1"/>
-    <col min="10244" max="10244" width="26.140625" customWidth="1"/>
-    <col min="10245" max="10245" width="21.5703125" customWidth="1"/>
-    <col min="10246" max="10246" width="25.140625" customWidth="1"/>
-    <col min="10497" max="10497" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="33.140625" customWidth="1"/>
-    <col min="10499" max="10499" width="39.7109375" customWidth="1"/>
-    <col min="10500" max="10500" width="26.140625" customWidth="1"/>
-    <col min="10501" max="10501" width="21.5703125" customWidth="1"/>
-    <col min="10502" max="10502" width="25.140625" customWidth="1"/>
-    <col min="10753" max="10753" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="33.140625" customWidth="1"/>
-    <col min="10755" max="10755" width="39.7109375" customWidth="1"/>
-    <col min="10756" max="10756" width="26.140625" customWidth="1"/>
-    <col min="10757" max="10757" width="21.5703125" customWidth="1"/>
-    <col min="10758" max="10758" width="25.140625" customWidth="1"/>
-    <col min="11009" max="11009" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="33.140625" customWidth="1"/>
-    <col min="11011" max="11011" width="39.7109375" customWidth="1"/>
-    <col min="11012" max="11012" width="26.140625" customWidth="1"/>
-    <col min="11013" max="11013" width="21.5703125" customWidth="1"/>
-    <col min="11014" max="11014" width="25.140625" customWidth="1"/>
-    <col min="11265" max="11265" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="33.140625" customWidth="1"/>
-    <col min="11267" max="11267" width="39.7109375" customWidth="1"/>
-    <col min="11268" max="11268" width="26.140625" customWidth="1"/>
-    <col min="11269" max="11269" width="21.5703125" customWidth="1"/>
-    <col min="11270" max="11270" width="25.140625" customWidth="1"/>
-    <col min="11521" max="11521" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="33.140625" customWidth="1"/>
-    <col min="11523" max="11523" width="39.7109375" customWidth="1"/>
-    <col min="11524" max="11524" width="26.140625" customWidth="1"/>
-    <col min="11525" max="11525" width="21.5703125" customWidth="1"/>
-    <col min="11526" max="11526" width="25.140625" customWidth="1"/>
-    <col min="11777" max="11777" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="33.140625" customWidth="1"/>
-    <col min="11779" max="11779" width="39.7109375" customWidth="1"/>
-    <col min="11780" max="11780" width="26.140625" customWidth="1"/>
-    <col min="11781" max="11781" width="21.5703125" customWidth="1"/>
-    <col min="11782" max="11782" width="25.140625" customWidth="1"/>
-    <col min="12033" max="12033" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="33.140625" customWidth="1"/>
-    <col min="12035" max="12035" width="39.7109375" customWidth="1"/>
-    <col min="12036" max="12036" width="26.140625" customWidth="1"/>
-    <col min="12037" max="12037" width="21.5703125" customWidth="1"/>
-    <col min="12038" max="12038" width="25.140625" customWidth="1"/>
-    <col min="12289" max="12289" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="33.140625" customWidth="1"/>
-    <col min="12291" max="12291" width="39.7109375" customWidth="1"/>
-    <col min="12292" max="12292" width="26.140625" customWidth="1"/>
-    <col min="12293" max="12293" width="21.5703125" customWidth="1"/>
-    <col min="12294" max="12294" width="25.140625" customWidth="1"/>
-    <col min="12545" max="12545" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="33.140625" customWidth="1"/>
-    <col min="12547" max="12547" width="39.7109375" customWidth="1"/>
-    <col min="12548" max="12548" width="26.140625" customWidth="1"/>
-    <col min="12549" max="12549" width="21.5703125" customWidth="1"/>
-    <col min="12550" max="12550" width="25.140625" customWidth="1"/>
-    <col min="12801" max="12801" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="33.140625" customWidth="1"/>
-    <col min="12803" max="12803" width="39.7109375" customWidth="1"/>
-    <col min="12804" max="12804" width="26.140625" customWidth="1"/>
-    <col min="12805" max="12805" width="21.5703125" customWidth="1"/>
-    <col min="12806" max="12806" width="25.140625" customWidth="1"/>
-    <col min="13057" max="13057" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="33.140625" customWidth="1"/>
-    <col min="13059" max="13059" width="39.7109375" customWidth="1"/>
-    <col min="13060" max="13060" width="26.140625" customWidth="1"/>
-    <col min="13061" max="13061" width="21.5703125" customWidth="1"/>
-    <col min="13062" max="13062" width="25.140625" customWidth="1"/>
-    <col min="13313" max="13313" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="33.140625" customWidth="1"/>
-    <col min="13315" max="13315" width="39.7109375" customWidth="1"/>
-    <col min="13316" max="13316" width="26.140625" customWidth="1"/>
-    <col min="13317" max="13317" width="21.5703125" customWidth="1"/>
-    <col min="13318" max="13318" width="25.140625" customWidth="1"/>
-    <col min="13569" max="13569" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="33.140625" customWidth="1"/>
-    <col min="13571" max="13571" width="39.7109375" customWidth="1"/>
-    <col min="13572" max="13572" width="26.140625" customWidth="1"/>
-    <col min="13573" max="13573" width="21.5703125" customWidth="1"/>
-    <col min="13574" max="13574" width="25.140625" customWidth="1"/>
-    <col min="13825" max="13825" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="33.140625" customWidth="1"/>
-    <col min="13827" max="13827" width="39.7109375" customWidth="1"/>
-    <col min="13828" max="13828" width="26.140625" customWidth="1"/>
-    <col min="13829" max="13829" width="21.5703125" customWidth="1"/>
-    <col min="13830" max="13830" width="25.140625" customWidth="1"/>
-    <col min="14081" max="14081" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="33.140625" customWidth="1"/>
-    <col min="14083" max="14083" width="39.7109375" customWidth="1"/>
-    <col min="14084" max="14084" width="26.140625" customWidth="1"/>
-    <col min="14085" max="14085" width="21.5703125" customWidth="1"/>
-    <col min="14086" max="14086" width="25.140625" customWidth="1"/>
-    <col min="14337" max="14337" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="33.140625" customWidth="1"/>
-    <col min="14339" max="14339" width="39.7109375" customWidth="1"/>
-    <col min="14340" max="14340" width="26.140625" customWidth="1"/>
-    <col min="14341" max="14341" width="21.5703125" customWidth="1"/>
-    <col min="14342" max="14342" width="25.140625" customWidth="1"/>
-    <col min="14593" max="14593" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="33.140625" customWidth="1"/>
-    <col min="14595" max="14595" width="39.7109375" customWidth="1"/>
-    <col min="14596" max="14596" width="26.140625" customWidth="1"/>
-    <col min="14597" max="14597" width="21.5703125" customWidth="1"/>
-    <col min="14598" max="14598" width="25.140625" customWidth="1"/>
-    <col min="14849" max="14849" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="33.140625" customWidth="1"/>
-    <col min="14851" max="14851" width="39.7109375" customWidth="1"/>
-    <col min="14852" max="14852" width="26.140625" customWidth="1"/>
-    <col min="14853" max="14853" width="21.5703125" customWidth="1"/>
-    <col min="14854" max="14854" width="25.140625" customWidth="1"/>
-    <col min="15105" max="15105" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="33.140625" customWidth="1"/>
-    <col min="15107" max="15107" width="39.7109375" customWidth="1"/>
-    <col min="15108" max="15108" width="26.140625" customWidth="1"/>
-    <col min="15109" max="15109" width="21.5703125" customWidth="1"/>
-    <col min="15110" max="15110" width="25.140625" customWidth="1"/>
-    <col min="15361" max="15361" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="33.140625" customWidth="1"/>
-    <col min="15363" max="15363" width="39.7109375" customWidth="1"/>
-    <col min="15364" max="15364" width="26.140625" customWidth="1"/>
-    <col min="15365" max="15365" width="21.5703125" customWidth="1"/>
-    <col min="15366" max="15366" width="25.140625" customWidth="1"/>
-    <col min="15617" max="15617" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="33.140625" customWidth="1"/>
-    <col min="15619" max="15619" width="39.7109375" customWidth="1"/>
-    <col min="15620" max="15620" width="26.140625" customWidth="1"/>
-    <col min="15621" max="15621" width="21.5703125" customWidth="1"/>
-    <col min="15622" max="15622" width="25.140625" customWidth="1"/>
-    <col min="15873" max="15873" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="33.140625" customWidth="1"/>
-    <col min="15875" max="15875" width="39.7109375" customWidth="1"/>
-    <col min="15876" max="15876" width="26.140625" customWidth="1"/>
-    <col min="15877" max="15877" width="21.5703125" customWidth="1"/>
-    <col min="15878" max="15878" width="25.140625" customWidth="1"/>
-    <col min="16129" max="16129" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="33.140625" customWidth="1"/>
-    <col min="16131" max="16131" width="39.7109375" customWidth="1"/>
-    <col min="16132" max="16132" width="26.140625" customWidth="1"/>
-    <col min="16133" max="16133" width="21.5703125" customWidth="1"/>
-    <col min="16134" max="16134" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="257" max="257" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="33.125" customWidth="1"/>
+    <col min="259" max="259" width="39.75" customWidth="1"/>
+    <col min="260" max="260" width="26.125" customWidth="1"/>
+    <col min="261" max="261" width="21.625" customWidth="1"/>
+    <col min="262" max="262" width="25.125" customWidth="1"/>
+    <col min="513" max="513" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="33.125" customWidth="1"/>
+    <col min="515" max="515" width="39.75" customWidth="1"/>
+    <col min="516" max="516" width="26.125" customWidth="1"/>
+    <col min="517" max="517" width="21.625" customWidth="1"/>
+    <col min="518" max="518" width="25.125" customWidth="1"/>
+    <col min="769" max="769" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="33.125" customWidth="1"/>
+    <col min="771" max="771" width="39.75" customWidth="1"/>
+    <col min="772" max="772" width="26.125" customWidth="1"/>
+    <col min="773" max="773" width="21.625" customWidth="1"/>
+    <col min="774" max="774" width="25.125" customWidth="1"/>
+    <col min="1025" max="1025" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="33.125" customWidth="1"/>
+    <col min="1027" max="1027" width="39.75" customWidth="1"/>
+    <col min="1028" max="1028" width="26.125" customWidth="1"/>
+    <col min="1029" max="1029" width="21.625" customWidth="1"/>
+    <col min="1030" max="1030" width="25.125" customWidth="1"/>
+    <col min="1281" max="1281" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="33.125" customWidth="1"/>
+    <col min="1283" max="1283" width="39.75" customWidth="1"/>
+    <col min="1284" max="1284" width="26.125" customWidth="1"/>
+    <col min="1285" max="1285" width="21.625" customWidth="1"/>
+    <col min="1286" max="1286" width="25.125" customWidth="1"/>
+    <col min="1537" max="1537" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="33.125" customWidth="1"/>
+    <col min="1539" max="1539" width="39.75" customWidth="1"/>
+    <col min="1540" max="1540" width="26.125" customWidth="1"/>
+    <col min="1541" max="1541" width="21.625" customWidth="1"/>
+    <col min="1542" max="1542" width="25.125" customWidth="1"/>
+    <col min="1793" max="1793" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="33.125" customWidth="1"/>
+    <col min="1795" max="1795" width="39.75" customWidth="1"/>
+    <col min="1796" max="1796" width="26.125" customWidth="1"/>
+    <col min="1797" max="1797" width="21.625" customWidth="1"/>
+    <col min="1798" max="1798" width="25.125" customWidth="1"/>
+    <col min="2049" max="2049" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="33.125" customWidth="1"/>
+    <col min="2051" max="2051" width="39.75" customWidth="1"/>
+    <col min="2052" max="2052" width="26.125" customWidth="1"/>
+    <col min="2053" max="2053" width="21.625" customWidth="1"/>
+    <col min="2054" max="2054" width="25.125" customWidth="1"/>
+    <col min="2305" max="2305" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="33.125" customWidth="1"/>
+    <col min="2307" max="2307" width="39.75" customWidth="1"/>
+    <col min="2308" max="2308" width="26.125" customWidth="1"/>
+    <col min="2309" max="2309" width="21.625" customWidth="1"/>
+    <col min="2310" max="2310" width="25.125" customWidth="1"/>
+    <col min="2561" max="2561" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="33.125" customWidth="1"/>
+    <col min="2563" max="2563" width="39.75" customWidth="1"/>
+    <col min="2564" max="2564" width="26.125" customWidth="1"/>
+    <col min="2565" max="2565" width="21.625" customWidth="1"/>
+    <col min="2566" max="2566" width="25.125" customWidth="1"/>
+    <col min="2817" max="2817" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="33.125" customWidth="1"/>
+    <col min="2819" max="2819" width="39.75" customWidth="1"/>
+    <col min="2820" max="2820" width="26.125" customWidth="1"/>
+    <col min="2821" max="2821" width="21.625" customWidth="1"/>
+    <col min="2822" max="2822" width="25.125" customWidth="1"/>
+    <col min="3073" max="3073" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="33.125" customWidth="1"/>
+    <col min="3075" max="3075" width="39.75" customWidth="1"/>
+    <col min="3076" max="3076" width="26.125" customWidth="1"/>
+    <col min="3077" max="3077" width="21.625" customWidth="1"/>
+    <col min="3078" max="3078" width="25.125" customWidth="1"/>
+    <col min="3329" max="3329" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="33.125" customWidth="1"/>
+    <col min="3331" max="3331" width="39.75" customWidth="1"/>
+    <col min="3332" max="3332" width="26.125" customWidth="1"/>
+    <col min="3333" max="3333" width="21.625" customWidth="1"/>
+    <col min="3334" max="3334" width="25.125" customWidth="1"/>
+    <col min="3585" max="3585" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="33.125" customWidth="1"/>
+    <col min="3587" max="3587" width="39.75" customWidth="1"/>
+    <col min="3588" max="3588" width="26.125" customWidth="1"/>
+    <col min="3589" max="3589" width="21.625" customWidth="1"/>
+    <col min="3590" max="3590" width="25.125" customWidth="1"/>
+    <col min="3841" max="3841" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="33.125" customWidth="1"/>
+    <col min="3843" max="3843" width="39.75" customWidth="1"/>
+    <col min="3844" max="3844" width="26.125" customWidth="1"/>
+    <col min="3845" max="3845" width="21.625" customWidth="1"/>
+    <col min="3846" max="3846" width="25.125" customWidth="1"/>
+    <col min="4097" max="4097" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="33.125" customWidth="1"/>
+    <col min="4099" max="4099" width="39.75" customWidth="1"/>
+    <col min="4100" max="4100" width="26.125" customWidth="1"/>
+    <col min="4101" max="4101" width="21.625" customWidth="1"/>
+    <col min="4102" max="4102" width="25.125" customWidth="1"/>
+    <col min="4353" max="4353" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="33.125" customWidth="1"/>
+    <col min="4355" max="4355" width="39.75" customWidth="1"/>
+    <col min="4356" max="4356" width="26.125" customWidth="1"/>
+    <col min="4357" max="4357" width="21.625" customWidth="1"/>
+    <col min="4358" max="4358" width="25.125" customWidth="1"/>
+    <col min="4609" max="4609" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="33.125" customWidth="1"/>
+    <col min="4611" max="4611" width="39.75" customWidth="1"/>
+    <col min="4612" max="4612" width="26.125" customWidth="1"/>
+    <col min="4613" max="4613" width="21.625" customWidth="1"/>
+    <col min="4614" max="4614" width="25.125" customWidth="1"/>
+    <col min="4865" max="4865" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="33.125" customWidth="1"/>
+    <col min="4867" max="4867" width="39.75" customWidth="1"/>
+    <col min="4868" max="4868" width="26.125" customWidth="1"/>
+    <col min="4869" max="4869" width="21.625" customWidth="1"/>
+    <col min="4870" max="4870" width="25.125" customWidth="1"/>
+    <col min="5121" max="5121" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="33.125" customWidth="1"/>
+    <col min="5123" max="5123" width="39.75" customWidth="1"/>
+    <col min="5124" max="5124" width="26.125" customWidth="1"/>
+    <col min="5125" max="5125" width="21.625" customWidth="1"/>
+    <col min="5126" max="5126" width="25.125" customWidth="1"/>
+    <col min="5377" max="5377" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="33.125" customWidth="1"/>
+    <col min="5379" max="5379" width="39.75" customWidth="1"/>
+    <col min="5380" max="5380" width="26.125" customWidth="1"/>
+    <col min="5381" max="5381" width="21.625" customWidth="1"/>
+    <col min="5382" max="5382" width="25.125" customWidth="1"/>
+    <col min="5633" max="5633" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="33.125" customWidth="1"/>
+    <col min="5635" max="5635" width="39.75" customWidth="1"/>
+    <col min="5636" max="5636" width="26.125" customWidth="1"/>
+    <col min="5637" max="5637" width="21.625" customWidth="1"/>
+    <col min="5638" max="5638" width="25.125" customWidth="1"/>
+    <col min="5889" max="5889" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="33.125" customWidth="1"/>
+    <col min="5891" max="5891" width="39.75" customWidth="1"/>
+    <col min="5892" max="5892" width="26.125" customWidth="1"/>
+    <col min="5893" max="5893" width="21.625" customWidth="1"/>
+    <col min="5894" max="5894" width="25.125" customWidth="1"/>
+    <col min="6145" max="6145" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="33.125" customWidth="1"/>
+    <col min="6147" max="6147" width="39.75" customWidth="1"/>
+    <col min="6148" max="6148" width="26.125" customWidth="1"/>
+    <col min="6149" max="6149" width="21.625" customWidth="1"/>
+    <col min="6150" max="6150" width="25.125" customWidth="1"/>
+    <col min="6401" max="6401" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="33.125" customWidth="1"/>
+    <col min="6403" max="6403" width="39.75" customWidth="1"/>
+    <col min="6404" max="6404" width="26.125" customWidth="1"/>
+    <col min="6405" max="6405" width="21.625" customWidth="1"/>
+    <col min="6406" max="6406" width="25.125" customWidth="1"/>
+    <col min="6657" max="6657" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="33.125" customWidth="1"/>
+    <col min="6659" max="6659" width="39.75" customWidth="1"/>
+    <col min="6660" max="6660" width="26.125" customWidth="1"/>
+    <col min="6661" max="6661" width="21.625" customWidth="1"/>
+    <col min="6662" max="6662" width="25.125" customWidth="1"/>
+    <col min="6913" max="6913" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="33.125" customWidth="1"/>
+    <col min="6915" max="6915" width="39.75" customWidth="1"/>
+    <col min="6916" max="6916" width="26.125" customWidth="1"/>
+    <col min="6917" max="6917" width="21.625" customWidth="1"/>
+    <col min="6918" max="6918" width="25.125" customWidth="1"/>
+    <col min="7169" max="7169" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="33.125" customWidth="1"/>
+    <col min="7171" max="7171" width="39.75" customWidth="1"/>
+    <col min="7172" max="7172" width="26.125" customWidth="1"/>
+    <col min="7173" max="7173" width="21.625" customWidth="1"/>
+    <col min="7174" max="7174" width="25.125" customWidth="1"/>
+    <col min="7425" max="7425" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="33.125" customWidth="1"/>
+    <col min="7427" max="7427" width="39.75" customWidth="1"/>
+    <col min="7428" max="7428" width="26.125" customWidth="1"/>
+    <col min="7429" max="7429" width="21.625" customWidth="1"/>
+    <col min="7430" max="7430" width="25.125" customWidth="1"/>
+    <col min="7681" max="7681" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="33.125" customWidth="1"/>
+    <col min="7683" max="7683" width="39.75" customWidth="1"/>
+    <col min="7684" max="7684" width="26.125" customWidth="1"/>
+    <col min="7685" max="7685" width="21.625" customWidth="1"/>
+    <col min="7686" max="7686" width="25.125" customWidth="1"/>
+    <col min="7937" max="7937" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="33.125" customWidth="1"/>
+    <col min="7939" max="7939" width="39.75" customWidth="1"/>
+    <col min="7940" max="7940" width="26.125" customWidth="1"/>
+    <col min="7941" max="7941" width="21.625" customWidth="1"/>
+    <col min="7942" max="7942" width="25.125" customWidth="1"/>
+    <col min="8193" max="8193" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="33.125" customWidth="1"/>
+    <col min="8195" max="8195" width="39.75" customWidth="1"/>
+    <col min="8196" max="8196" width="26.125" customWidth="1"/>
+    <col min="8197" max="8197" width="21.625" customWidth="1"/>
+    <col min="8198" max="8198" width="25.125" customWidth="1"/>
+    <col min="8449" max="8449" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="33.125" customWidth="1"/>
+    <col min="8451" max="8451" width="39.75" customWidth="1"/>
+    <col min="8452" max="8452" width="26.125" customWidth="1"/>
+    <col min="8453" max="8453" width="21.625" customWidth="1"/>
+    <col min="8454" max="8454" width="25.125" customWidth="1"/>
+    <col min="8705" max="8705" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="33.125" customWidth="1"/>
+    <col min="8707" max="8707" width="39.75" customWidth="1"/>
+    <col min="8708" max="8708" width="26.125" customWidth="1"/>
+    <col min="8709" max="8709" width="21.625" customWidth="1"/>
+    <col min="8710" max="8710" width="25.125" customWidth="1"/>
+    <col min="8961" max="8961" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="33.125" customWidth="1"/>
+    <col min="8963" max="8963" width="39.75" customWidth="1"/>
+    <col min="8964" max="8964" width="26.125" customWidth="1"/>
+    <col min="8965" max="8965" width="21.625" customWidth="1"/>
+    <col min="8966" max="8966" width="25.125" customWidth="1"/>
+    <col min="9217" max="9217" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="33.125" customWidth="1"/>
+    <col min="9219" max="9219" width="39.75" customWidth="1"/>
+    <col min="9220" max="9220" width="26.125" customWidth="1"/>
+    <col min="9221" max="9221" width="21.625" customWidth="1"/>
+    <col min="9222" max="9222" width="25.125" customWidth="1"/>
+    <col min="9473" max="9473" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="33.125" customWidth="1"/>
+    <col min="9475" max="9475" width="39.75" customWidth="1"/>
+    <col min="9476" max="9476" width="26.125" customWidth="1"/>
+    <col min="9477" max="9477" width="21.625" customWidth="1"/>
+    <col min="9478" max="9478" width="25.125" customWidth="1"/>
+    <col min="9729" max="9729" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="33.125" customWidth="1"/>
+    <col min="9731" max="9731" width="39.75" customWidth="1"/>
+    <col min="9732" max="9732" width="26.125" customWidth="1"/>
+    <col min="9733" max="9733" width="21.625" customWidth="1"/>
+    <col min="9734" max="9734" width="25.125" customWidth="1"/>
+    <col min="9985" max="9985" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="33.125" customWidth="1"/>
+    <col min="9987" max="9987" width="39.75" customWidth="1"/>
+    <col min="9988" max="9988" width="26.125" customWidth="1"/>
+    <col min="9989" max="9989" width="21.625" customWidth="1"/>
+    <col min="9990" max="9990" width="25.125" customWidth="1"/>
+    <col min="10241" max="10241" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="33.125" customWidth="1"/>
+    <col min="10243" max="10243" width="39.75" customWidth="1"/>
+    <col min="10244" max="10244" width="26.125" customWidth="1"/>
+    <col min="10245" max="10245" width="21.625" customWidth="1"/>
+    <col min="10246" max="10246" width="25.125" customWidth="1"/>
+    <col min="10497" max="10497" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="33.125" customWidth="1"/>
+    <col min="10499" max="10499" width="39.75" customWidth="1"/>
+    <col min="10500" max="10500" width="26.125" customWidth="1"/>
+    <col min="10501" max="10501" width="21.625" customWidth="1"/>
+    <col min="10502" max="10502" width="25.125" customWidth="1"/>
+    <col min="10753" max="10753" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="33.125" customWidth="1"/>
+    <col min="10755" max="10755" width="39.75" customWidth="1"/>
+    <col min="10756" max="10756" width="26.125" customWidth="1"/>
+    <col min="10757" max="10757" width="21.625" customWidth="1"/>
+    <col min="10758" max="10758" width="25.125" customWidth="1"/>
+    <col min="11009" max="11009" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="33.125" customWidth="1"/>
+    <col min="11011" max="11011" width="39.75" customWidth="1"/>
+    <col min="11012" max="11012" width="26.125" customWidth="1"/>
+    <col min="11013" max="11013" width="21.625" customWidth="1"/>
+    <col min="11014" max="11014" width="25.125" customWidth="1"/>
+    <col min="11265" max="11265" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="33.125" customWidth="1"/>
+    <col min="11267" max="11267" width="39.75" customWidth="1"/>
+    <col min="11268" max="11268" width="26.125" customWidth="1"/>
+    <col min="11269" max="11269" width="21.625" customWidth="1"/>
+    <col min="11270" max="11270" width="25.125" customWidth="1"/>
+    <col min="11521" max="11521" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="33.125" customWidth="1"/>
+    <col min="11523" max="11523" width="39.75" customWidth="1"/>
+    <col min="11524" max="11524" width="26.125" customWidth="1"/>
+    <col min="11525" max="11525" width="21.625" customWidth="1"/>
+    <col min="11526" max="11526" width="25.125" customWidth="1"/>
+    <col min="11777" max="11777" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="33.125" customWidth="1"/>
+    <col min="11779" max="11779" width="39.75" customWidth="1"/>
+    <col min="11780" max="11780" width="26.125" customWidth="1"/>
+    <col min="11781" max="11781" width="21.625" customWidth="1"/>
+    <col min="11782" max="11782" width="25.125" customWidth="1"/>
+    <col min="12033" max="12033" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="33.125" customWidth="1"/>
+    <col min="12035" max="12035" width="39.75" customWidth="1"/>
+    <col min="12036" max="12036" width="26.125" customWidth="1"/>
+    <col min="12037" max="12037" width="21.625" customWidth="1"/>
+    <col min="12038" max="12038" width="25.125" customWidth="1"/>
+    <col min="12289" max="12289" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="33.125" customWidth="1"/>
+    <col min="12291" max="12291" width="39.75" customWidth="1"/>
+    <col min="12292" max="12292" width="26.125" customWidth="1"/>
+    <col min="12293" max="12293" width="21.625" customWidth="1"/>
+    <col min="12294" max="12294" width="25.125" customWidth="1"/>
+    <col min="12545" max="12545" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="33.125" customWidth="1"/>
+    <col min="12547" max="12547" width="39.75" customWidth="1"/>
+    <col min="12548" max="12548" width="26.125" customWidth="1"/>
+    <col min="12549" max="12549" width="21.625" customWidth="1"/>
+    <col min="12550" max="12550" width="25.125" customWidth="1"/>
+    <col min="12801" max="12801" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="33.125" customWidth="1"/>
+    <col min="12803" max="12803" width="39.75" customWidth="1"/>
+    <col min="12804" max="12804" width="26.125" customWidth="1"/>
+    <col min="12805" max="12805" width="21.625" customWidth="1"/>
+    <col min="12806" max="12806" width="25.125" customWidth="1"/>
+    <col min="13057" max="13057" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="33.125" customWidth="1"/>
+    <col min="13059" max="13059" width="39.75" customWidth="1"/>
+    <col min="13060" max="13060" width="26.125" customWidth="1"/>
+    <col min="13061" max="13061" width="21.625" customWidth="1"/>
+    <col min="13062" max="13062" width="25.125" customWidth="1"/>
+    <col min="13313" max="13313" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="33.125" customWidth="1"/>
+    <col min="13315" max="13315" width="39.75" customWidth="1"/>
+    <col min="13316" max="13316" width="26.125" customWidth="1"/>
+    <col min="13317" max="13317" width="21.625" customWidth="1"/>
+    <col min="13318" max="13318" width="25.125" customWidth="1"/>
+    <col min="13569" max="13569" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="33.125" customWidth="1"/>
+    <col min="13571" max="13571" width="39.75" customWidth="1"/>
+    <col min="13572" max="13572" width="26.125" customWidth="1"/>
+    <col min="13573" max="13573" width="21.625" customWidth="1"/>
+    <col min="13574" max="13574" width="25.125" customWidth="1"/>
+    <col min="13825" max="13825" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="33.125" customWidth="1"/>
+    <col min="13827" max="13827" width="39.75" customWidth="1"/>
+    <col min="13828" max="13828" width="26.125" customWidth="1"/>
+    <col min="13829" max="13829" width="21.625" customWidth="1"/>
+    <col min="13830" max="13830" width="25.125" customWidth="1"/>
+    <col min="14081" max="14081" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="33.125" customWidth="1"/>
+    <col min="14083" max="14083" width="39.75" customWidth="1"/>
+    <col min="14084" max="14084" width="26.125" customWidth="1"/>
+    <col min="14085" max="14085" width="21.625" customWidth="1"/>
+    <col min="14086" max="14086" width="25.125" customWidth="1"/>
+    <col min="14337" max="14337" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="33.125" customWidth="1"/>
+    <col min="14339" max="14339" width="39.75" customWidth="1"/>
+    <col min="14340" max="14340" width="26.125" customWidth="1"/>
+    <col min="14341" max="14341" width="21.625" customWidth="1"/>
+    <col min="14342" max="14342" width="25.125" customWidth="1"/>
+    <col min="14593" max="14593" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="33.125" customWidth="1"/>
+    <col min="14595" max="14595" width="39.75" customWidth="1"/>
+    <col min="14596" max="14596" width="26.125" customWidth="1"/>
+    <col min="14597" max="14597" width="21.625" customWidth="1"/>
+    <col min="14598" max="14598" width="25.125" customWidth="1"/>
+    <col min="14849" max="14849" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="33.125" customWidth="1"/>
+    <col min="14851" max="14851" width="39.75" customWidth="1"/>
+    <col min="14852" max="14852" width="26.125" customWidth="1"/>
+    <col min="14853" max="14853" width="21.625" customWidth="1"/>
+    <col min="14854" max="14854" width="25.125" customWidth="1"/>
+    <col min="15105" max="15105" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="33.125" customWidth="1"/>
+    <col min="15107" max="15107" width="39.75" customWidth="1"/>
+    <col min="15108" max="15108" width="26.125" customWidth="1"/>
+    <col min="15109" max="15109" width="21.625" customWidth="1"/>
+    <col min="15110" max="15110" width="25.125" customWidth="1"/>
+    <col min="15361" max="15361" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="33.125" customWidth="1"/>
+    <col min="15363" max="15363" width="39.75" customWidth="1"/>
+    <col min="15364" max="15364" width="26.125" customWidth="1"/>
+    <col min="15365" max="15365" width="21.625" customWidth="1"/>
+    <col min="15366" max="15366" width="25.125" customWidth="1"/>
+    <col min="15617" max="15617" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="33.125" customWidth="1"/>
+    <col min="15619" max="15619" width="39.75" customWidth="1"/>
+    <col min="15620" max="15620" width="26.125" customWidth="1"/>
+    <col min="15621" max="15621" width="21.625" customWidth="1"/>
+    <col min="15622" max="15622" width="25.125" customWidth="1"/>
+    <col min="15873" max="15873" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="33.125" customWidth="1"/>
+    <col min="15875" max="15875" width="39.75" customWidth="1"/>
+    <col min="15876" max="15876" width="26.125" customWidth="1"/>
+    <col min="15877" max="15877" width="21.625" customWidth="1"/>
+    <col min="15878" max="15878" width="25.125" customWidth="1"/>
+    <col min="16129" max="16129" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="33.125" customWidth="1"/>
+    <col min="16131" max="16131" width="39.75" customWidth="1"/>
+    <col min="16132" max="16132" width="26.125" customWidth="1"/>
+    <col min="16133" max="16133" width="21.625" customWidth="1"/>
+    <col min="16134" max="16134" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
@@ -1631,12 +1596,12 @@
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1649,10 +1614,10 @@
       <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="43">
         <v>4</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">
@@ -1675,9 +1640,9 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1701,15 +1666,9 @@
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="22">
-        <v>41312</v>
-      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="23" t="s">
@@ -1721,91 +1680,73 @@
       <c r="C11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="22">
-        <v>41312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30">
+      <c r="D11" s="25"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.5">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="22">
-        <v>41312</v>
-      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="22">
-        <v>41312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1"/>
+        <v>38</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1"/>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
@@ -1821,12 +1762,12 @@
       <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -1839,10 +1780,10 @@
       <c r="D20" s="10">
         <v>0</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="43">
         <v>3</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
@@ -1865,9 +1806,9 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -1875,7 +1816,7 @@
     <row r="24" spans="1:6">
       <c r="A24" s="14"/>
       <c r="B24" s="15" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
@@ -1886,20 +1827,14 @@
         <v>25</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="22">
-        <v>41312</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="29" t="s">
@@ -1909,73 +1844,61 @@
         <v>21</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="22">
-        <v>41312</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="22">
-        <v>41312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1"/>
+        <v>38</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1"/>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
+      <c r="B31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
@@ -1991,12 +1914,12 @@
       <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="40"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
       <c r="A34" s="8">
         <v>3</v>
       </c>
@@ -2009,10 +1932,10 @@
       <c r="D34" s="10">
         <v>0</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="43">
         <v>3</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="11" t="s">
@@ -2035,9 +1958,9 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -2045,7 +1968,7 @@
     <row r="38" spans="1:6">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
@@ -2056,131 +1979,107 @@
         <v>29</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="22">
-        <v>41312</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="22">
-        <v>41312</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="22">
-        <v>41312</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="22">
-        <v>41312</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="46"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="50"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
+      <c r="B46" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6">
@@ -2196,12 +2095,12 @@
       <c r="D48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="40"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F48" s="42"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1">
       <c r="A49" s="8">
         <v>2</v>
       </c>
@@ -2214,10 +2113,10 @@
       <c r="D49" s="10">
         <v>0</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="43">
         <v>2</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="44"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="11" t="s">
@@ -2240,9 +2139,9 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="43"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -2250,7 +2149,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="14"/>
       <c r="B53" s="15" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="17"/>
@@ -2258,79 +2157,67 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="18" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="22">
-        <v>41312</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="29" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="22">
-        <v>41312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1"/>
+        <v>56</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1"/>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="50"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
+      <c r="B59" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6">
@@ -2346,12 +2233,12 @@
       <c r="D61" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="40"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F61" s="42"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1">
       <c r="A62" s="8">
         <v>2</v>
       </c>
@@ -2364,10 +2251,10 @@
       <c r="D62" s="10">
         <v>0</v>
       </c>
-      <c r="E62" s="41">
-        <v>2</v>
-      </c>
-      <c r="F62" s="42"/>
+      <c r="E62" s="43">
+        <v>4</v>
+      </c>
+      <c r="F62" s="44"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="11" t="s">
@@ -2390,9 +2277,9 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="43"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="45"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
@@ -2400,7 +2287,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="14"/>
       <c r="B66" s="15" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="17"/>
@@ -2408,251 +2295,225 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="18" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C67" s="20"/>
-      <c r="D67" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F67" s="22">
-        <v>41312</v>
-      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="29" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="C70" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1"/>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="22">
-        <v>41312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
+      <c r="B76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1">
+      <c r="A77" s="8">
+        <v>4</v>
+      </c>
+      <c r="B77" s="9">
         <v>0</v>
       </c>
-      <c r="B71" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="36" t="s">
+      <c r="C77" s="9">
+        <v>0</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0</v>
+      </c>
+      <c r="E77" s="43">
         <v>4</v>
       </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="40"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A75" s="8">
-        <v>4</v>
-      </c>
-      <c r="B75" s="9">
-        <v>0</v>
-      </c>
-      <c r="C75" s="9">
-        <v>0</v>
-      </c>
-      <c r="D75" s="10">
-        <v>0</v>
-      </c>
-      <c r="E75" s="41">
-        <v>4</v>
-      </c>
-      <c r="F75" s="42"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="11" t="s">
+      <c r="F77" s="44"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B79" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D79" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E79" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F79" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="43"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="14"/>
-      <c r="B79" s="15" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="45"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="14"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="19" t="s">
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="22">
-        <v>41312</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="25.5">
-      <c r="A81" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="22">
-        <v>41312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="22">
-        <v>41312</v>
-      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="22"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="22">
-        <v>41312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1"/>
+        <v>61</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="32"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="A80:C80"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -2668,36 +2529,22 @@
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>